--- a/unmatched_markers.xlsx
+++ b/unmatched_markers.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="47">
   <si>
     <t>participant</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>timestamp</t>
+  </si>
+  <si>
+    <t>epoch_ms</t>
+  </si>
+  <si>
+    <t>timestamp_utc</t>
   </si>
   <si>
     <t>001</t>
@@ -210,6 +216,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -262,11 +271,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,13 +571,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,39 +593,57 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>3443448</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1758701348634</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45924.33968326389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>3459514</v>
+      </c>
+      <c r="F3">
+        <v>1758701364700</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45924.33986921296</v>
       </c>
     </row>
   </sheetData>
@@ -625,13 +653,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,18 +676,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -669,13 +703,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,107 +725,149 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>10492</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1757574712951</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45911.29991841436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>10492</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>1757574712951</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45911.29991841436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>357881</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>1757575060340</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45911.30393912037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>2140153</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>1757576842612</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45911.32456726852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>2152434</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>1757576854893</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45911.32470940972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>2546911</v>
+      </c>
+      <c r="F7">
+        <v>1757577249370</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45911.32927511574</v>
       </c>
     </row>
   </sheetData>
@@ -801,13 +877,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,18 +900,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -845,13 +927,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,90 +949,126 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>411413</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1757498078814</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45910.41294923611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>430256</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>1757498097657</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45910.41316732639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>442300</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>1757498109701</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45910.41330672453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>1035423</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>1757498702824</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45910.42017157407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>1091083</v>
+      </c>
+      <c r="F6">
+        <v>1757498758484</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45910.42081578704</v>
       </c>
     </row>
   </sheetData>
@@ -960,13 +1078,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -982,39 +1100,57 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>1047573</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1757660047414</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45912.28758581018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>1056268</v>
+      </c>
+      <c r="F3">
+        <v>1757660056109</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45912.28768644676</v>
       </c>
     </row>
   </sheetData>
@@ -1024,13 +1160,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1046,73 +1182,103 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>3558720</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1756975899414</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45904.36920618056</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>3565790</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>1756975906484</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45904.36928800926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>3739610</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>1756976080304</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45904.37129981481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>3747983</v>
+      </c>
+      <c r="F5">
+        <v>1756976088677</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45904.37139672453</v>
       </c>
     </row>
   </sheetData>
@@ -1122,13 +1288,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1145,18 +1311,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1166,13 +1338,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1189,18 +1361,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1210,13 +1388,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1232,39 +1410,57 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>449451</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1758091035611</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45917.27587512731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>910932</v>
+      </c>
+      <c r="F3">
+        <v>1758091497092</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45917.28121634259</v>
       </c>
     </row>
   </sheetData>
@@ -1274,13 +1470,13 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1297,18 +1493,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1318,13 +1520,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1340,22 +1542,34 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>1475678</v>
+      </c>
+      <c r="F2">
+        <v>1758810890115</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45925.60752447916</v>
       </c>
     </row>
   </sheetData>
@@ -1365,13 +1579,13 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1388,18 +1602,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1409,13 +1629,13 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1432,18 +1652,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1453,13 +1679,13 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1475,141 +1701,195 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>279822</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1758096233018</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45917.33603030092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>282033</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>1758096235229</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45917.3360558912</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>979539</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>1758096932735</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45917.34412887732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>995740</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>1758096948936</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45917.34431638889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>2989803</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>1758098942999</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45917.36739582176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>3031455</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>1758098984651</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45917.36787790509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>3119534</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>1758099072730</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45917.36889733796</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>3125629</v>
+      </c>
+      <c r="F9">
+        <v>1758099078825</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45917.36896788194</v>
       </c>
     </row>
   </sheetData>
@@ -1619,13 +1899,13 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1641,22 +1921,34 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>1463675</v>
+      </c>
+      <c r="F2">
+        <v>1758178594054</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45918.28928303241</v>
       </c>
     </row>
   </sheetData>
@@ -1666,13 +1958,13 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1688,39 +1980,57 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>253311</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1757584321208</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45911.41112509259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>268385</v>
+      </c>
+      <c r="F3">
+        <v>1757584336282</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45911.41129956018</v>
       </c>
     </row>
   </sheetData>
@@ -1730,13 +2040,13 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1752,90 +2062,126 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>346422</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1757504381234</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45910.48589391204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>658499</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>1757504693311</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45910.48950591435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>669788</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>1757504704600</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45910.48963657407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>1999080</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>1757506033892</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45910.50502189815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>2004437</v>
+      </c>
+      <c r="F6">
+        <v>1757506039249</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45910.50508390046</v>
       </c>
     </row>
   </sheetData>
@@ -1845,13 +2191,13 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1867,141 +2213,195 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>1288240</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1756995293035</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45904.59366938657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>1336720</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>1756995341515</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45904.59423049769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>1384217</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>1756995389012</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45904.59478023148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>1631738</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>1756995636533</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45904.59764505787</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>1719120</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>1756995723915</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45904.59865642361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>2222645</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>1756996227440</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45904.60448425926</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>2240089</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>1756996244884</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45904.60468615741</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>2419810</v>
+      </c>
+      <c r="F9">
+        <v>1756996424605</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45904.60676626158</v>
       </c>
     </row>
   </sheetData>
@@ -2011,13 +2411,13 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2034,18 +2434,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2055,13 +2461,13 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2077,39 +2483,57 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>1493000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1758708891396</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45924.42698375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>1511042</v>
+      </c>
+      <c r="F3">
+        <v>1758708909438</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45924.42719256944</v>
       </c>
     </row>
   </sheetData>
@@ -2119,13 +2543,13 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2141,39 +2565,57 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>721416</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1758870227426</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45926.29429891203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>737258</v>
+      </c>
+      <c r="F3">
+        <v>1758870243268</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45926.29448226852</v>
       </c>
     </row>
   </sheetData>
@@ -2183,13 +2625,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2206,18 +2648,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2227,13 +2675,13 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2250,18 +2698,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2271,13 +2725,13 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2293,22 +2747,34 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>3897662</v>
+      </c>
+      <c r="F2">
+        <v>1757594063450</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45911.52388252315</v>
       </c>
     </row>
   </sheetData>
@@ -2318,13 +2784,13 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2340,22 +2806,34 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>3014348</v>
+      </c>
+      <c r="F2">
+        <v>1757671497702</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45912.42011229166</v>
       </c>
     </row>
   </sheetData>
@@ -2365,13 +2843,13 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2387,22 +2865,34 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>1759617</v>
+      </c>
+      <c r="F2">
+        <v>1758183602271</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45918.34724850694</v>
       </c>
     </row>
   </sheetData>
@@ -2412,13 +2902,13 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2435,18 +2925,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2456,13 +2952,13 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2478,39 +2974,57 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>2328448</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1758103094443</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45917.41544494213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>2434454</v>
+      </c>
+      <c r="F3">
+        <v>1758103200449</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45917.41667186342</v>
       </c>
     </row>
   </sheetData>
@@ -2520,13 +3034,13 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2542,22 +3056,34 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>300941</v>
+      </c>
+      <c r="F2">
+        <v>1758874143389</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45926.33962255787</v>
       </c>
     </row>
   </sheetData>
@@ -2567,13 +3093,13 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2589,22 +3115,34 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>125438</v>
+      </c>
+      <c r="F2">
+        <v>1758715684753</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45924.50561056713</v>
       </c>
     </row>
   </sheetData>
@@ -2614,13 +3152,13 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2636,56 +3174,80 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>896939</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1758793495412</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45925.40619689815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>1802681</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>1758794401154</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45925.41668002315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>3162810</v>
+      </c>
+      <c r="F4">
+        <v>1758795761283</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45925.43242225694</v>
       </c>
     </row>
   </sheetData>
@@ -2695,13 +3257,13 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2717,39 +3279,57 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>3216417</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1757519432401</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45910.6600972338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>3240615</v>
+      </c>
+      <c r="F3">
+        <v>1757519456599</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45910.66037730324</v>
       </c>
     </row>
   </sheetData>
@@ -2759,13 +3339,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2781,73 +3361,103 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>732128</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1757681992576</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45912.54158074074</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>1168579</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>1757682429027</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45912.54663225694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>1171948</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>1757682432396</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45912.54667125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>1407071</v>
+      </c>
+      <c r="F5">
+        <v>1757682667519</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45912.54939258102</v>
       </c>
     </row>
   </sheetData>
@@ -2857,13 +3467,13 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2880,18 +3490,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2901,13 +3517,13 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2923,22 +3539,34 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>1790188</v>
+      </c>
+      <c r="F2">
+        <v>1757596892835</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45911.55663003472</v>
       </c>
     </row>
   </sheetData>
@@ -2948,13 +3576,13 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2971,18 +3599,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2992,13 +3626,13 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3014,73 +3648,103 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>670917</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1758108430156</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45917.47720087963</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>670917</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>1758108430156</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45917.47720087963</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>1406311</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>1758109165550</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45917.48571238426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>1410331</v>
+      </c>
+      <c r="F5">
+        <v>1758109169570</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45917.48575891204</v>
       </c>
     </row>
   </sheetData>
@@ -3090,13 +3754,13 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3112,158 +3776,218 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>666608</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1758269948523</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45919.34662642361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>699751</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>1758269981666</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45919.34701002315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>916064</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>1758270197979</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45919.34951364584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>1580609</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>1758270862524</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45919.35720513889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>1584324</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>1758270866239</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45919.35724813658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>3566819</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>1758272848734</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45919.38019368055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>3573197</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>1758272855112</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45919.3802675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>3768105</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>1758273050020</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45919.38252337963</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>3776719</v>
+      </c>
+      <c r="F10">
+        <v>1758273058634</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45919.3826230787</v>
       </c>
     </row>
   </sheetData>
@@ -3273,13 +3997,13 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3295,107 +4019,149 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>1858042</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1758880221348</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45926.40996930555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>1888695</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>1758880252001</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45926.41032408565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>1900695</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>1758880264001</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45926.41046297453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>2793710</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>1758881157016</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45926.42079879629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>2943447</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>1758881306753</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45926.42253186343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>3276089</v>
+      </c>
+      <c r="F7">
+        <v>1758881639395</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45926.42638188657</v>
       </c>
     </row>
   </sheetData>
@@ -3405,13 +4171,13 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3427,39 +4193,57 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>1802257</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1758801840993</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45925.50278927083</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>1843141</v>
+      </c>
+      <c r="F3">
+        <v>1758801881877</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45925.50326246528</v>
       </c>
     </row>
   </sheetData>
@@ -3469,13 +4253,13 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3492,18 +4276,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3513,13 +4303,13 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3535,39 +4325,57 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>458260</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1758113221470</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45917.53265590277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>1458465</v>
+      </c>
+      <c r="F3">
+        <v>1758114221675</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45917.54423234954</v>
       </c>
     </row>
   </sheetData>
@@ -3577,13 +4385,13 @@
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3599,22 +4407,34 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>1334373</v>
+      </c>
+      <c r="F2">
+        <v>1758195466937</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45918.48457103009</v>
       </c>
     </row>
   </sheetData>
@@ -3624,13 +4444,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3646,175 +4466,241 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>695652</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1757487809398</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45910.29409025463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>1395939</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>1757488509685</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45910.30219542824</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>1407679</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>1757488521425</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45910.30233130787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>3096761</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>1757490210507</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45910.32188086805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>3174255</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>1757490288001</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45910.32277778936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>3467085</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>1757490580831</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45910.32616702547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>3467602</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>1757490581348</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45910.32617300926</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>3467757</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>1757490581503</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45910.32617480324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>3513371</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>1757490627117</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45910.32670274306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>3785377</v>
+      </c>
+      <c r="F11">
+        <v>1757490899123</v>
+      </c>
+      <c r="G11" s="2">
+        <v>45910.32985096065</v>
       </c>
     </row>
   </sheetData>
@@ -3824,13 +4710,13 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3847,18 +4733,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3868,13 +4760,13 @@
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3890,39 +4782,57 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>2685478</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1758887337407</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45926.49233109954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>2699873</v>
+      </c>
+      <c r="F3">
+        <v>1758887351802</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45926.49249770834</v>
       </c>
     </row>
   </sheetData>
@@ -3932,13 +4842,13 @@
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3954,73 +4864,103 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>386588</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1758725768324</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45924.62231856481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>397140</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>1758725778876</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45924.62244069445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>651810</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>1758726033546</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45924.62538826389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>662596</v>
+      </c>
+      <c r="F5">
+        <v>1758726044332</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45924.62551310186</v>
       </c>
     </row>
   </sheetData>
@@ -4030,13 +4970,13 @@
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4052,39 +4992,57 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>3141045</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1758807711926</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45925.57073988426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>3150121</v>
+      </c>
+      <c r="F3">
+        <v>1758807721002</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45925.57084493055</v>
       </c>
     </row>
   </sheetData>
@@ -4094,13 +5052,13 @@
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4117,18 +5075,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -4138,13 +5102,13 @@
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4160,90 +5124,126 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>564465</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1758118034206</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45917.58835886574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>721766</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>1758118191507</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45917.59017947916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>723306</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>1758118193047</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45917.59019730324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>2040777</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>1758119510518</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45917.60544581019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>2067341</v>
+      </c>
+      <c r="F6">
+        <v>1758119537082</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45917.60575326389</v>
       </c>
     </row>
   </sheetData>
@@ -4253,13 +5253,13 @@
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4275,22 +5275,34 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>927284</v>
+      </c>
+      <c r="F2">
+        <v>1758282084893</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45919.48709366898</v>
       </c>
     </row>
   </sheetData>
@@ -4300,13 +5312,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4322,22 +5334,34 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>2525380</v>
+      </c>
+      <c r="F2">
+        <v>1757603016151</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45911.62750174769</v>
       </c>
     </row>
   </sheetData>
@@ -4347,13 +5371,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4369,39 +5393,57 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>3248347</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1758786394038</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45925.32400506944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>3253527</v>
+      </c>
+      <c r="F3">
+        <v>1758786399218</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45925.32406502315</v>
       </c>
     </row>
   </sheetData>
@@ -4411,13 +5453,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4433,39 +5475,57 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>2910462</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1758705367559</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45924.38619859954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>3179705</v>
+      </c>
+      <c r="F3">
+        <v>1758705636802</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45924.38931483796</v>
       </c>
     </row>
   </sheetData>
@@ -4475,13 +5535,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4497,396 +5557,540 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>346849</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1757492599691</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45910.34953346065</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>815514</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>1757493068356</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45910.35495782407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>884947</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>1757493137789</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45910.35576144676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>887080</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>1757493139922</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45910.35578613426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>957579</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>1757493210421</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45910.35660209491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>1010556</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>1757493263398</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45910.35721525463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>1096176</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>1757493349018</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45910.35820622685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>1311628</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>1757493564470</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45910.36069988426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>1319967</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>1757493572809</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45910.36079640046</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>1350277</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>1757493603119</v>
+      </c>
+      <c r="G11" s="2">
+        <v>45910.36114721065</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>1364041</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>1757493616883</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45910.36130651621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>1378949</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>1757493631791</v>
+      </c>
+      <c r="G13" s="2">
+        <v>45910.3614790625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>1421535</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>1757493674377</v>
+      </c>
+      <c r="G14" s="2">
+        <v>45910.36197195602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>1866313</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>1757494119155</v>
+      </c>
+      <c r="G15" s="2">
+        <v>45910.36711984954</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>1878613</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>1757494131455</v>
+      </c>
+      <c r="G16" s="2">
+        <v>45910.36726221065</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>1912223</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>1757494165065</v>
+      </c>
+      <c r="G17" s="2">
+        <v>45910.36765121527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>1924307</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>1757494177149</v>
+      </c>
+      <c r="G18" s="2">
+        <v>45910.36779107639</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E19">
         <v>2179696</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>1757494432538</v>
+      </c>
+      <c r="G19" s="2">
+        <v>45910.37074696759</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>2309476</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>1757494562318</v>
+      </c>
+      <c r="G20" s="2">
+        <v>45910.37224905092</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <v>2715224</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>1757494968066</v>
+      </c>
+      <c r="G21" s="2">
+        <v>45910.37694520834</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E22">
         <v>2778212</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>1757495031054</v>
+      </c>
+      <c r="G22" s="2">
+        <v>45910.37767423611</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <v>2899282</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>1757495152124</v>
+      </c>
+      <c r="G23" s="2">
+        <v>45910.37907550926</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E24">
         <v>3650104</v>
+      </c>
+      <c r="F24">
+        <v>1757495902946</v>
+      </c>
+      <c r="G24" s="2">
+        <v>45910.38776557871</v>
       </c>
     </row>
   </sheetData>
